--- a/config_ios提审/fish3d_map_config.xlsx
+++ b/config_ios提审/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios提审\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="config|鱼的图鉴配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -365,10 +365,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D061</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D062</t>
   </si>
   <si>
@@ -376,66 +372,647 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Fish3D068</t>
+  </si>
+  <si>
+    <t>Fish3D072</t>
+  </si>
+  <si>
+    <t>Fish3D073</t>
+  </si>
+  <si>
+    <t>Fish3D020</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D046</t>
+  </si>
+  <si>
+    <t>Fish3D047</t>
+  </si>
+  <si>
+    <t>Fish3D075</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D030</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D034</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D031</t>
+  </si>
+  <si>
+    <t>Fish3D050</t>
+  </si>
+  <si>
+    <t>Fish3D051</t>
+  </si>
+  <si>
+    <t>Fish3D052</t>
+  </si>
+  <si>
+    <t>Fish3D076</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D053</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D028</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D054</t>
+  </si>
+  <si>
+    <t>Fish3D083</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D056</t>
+  </si>
+  <si>
+    <t>Fish3D082</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D057</t>
+  </si>
+  <si>
+    <t>Fish3D058</t>
+  </si>
+  <si>
+    <t>Fish3D077</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D059</t>
+  </si>
+  <si>
+    <t>2倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id|场次ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6,7,8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,7,8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6,7,8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D064</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Fish3D080</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D014</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D018</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D081</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D027</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D025</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish3D065</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D066</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D080</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D067</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D055</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D060</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D068</t>
-  </si>
-  <si>
-    <t>Fish3D069</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D070</t>
-  </si>
-  <si>
-    <t>Fish3D071</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D045</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D072</t>
-  </si>
-  <si>
-    <t>Fish3D073</t>
-  </si>
-  <si>
-    <t>Fish3D074</t>
-  </si>
-  <si>
-    <t>Fish3D020</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D081</t>
+    <t>Fish3D016</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D004</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D017</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D010</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -444,581 +1021,6 @@
   </si>
   <si>
     <t>Fish3D079</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D046</t>
-  </si>
-  <si>
-    <t>Fish3D047</t>
-  </si>
-  <si>
-    <t>Fish3D027</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D049</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D048</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D075</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D030</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D041</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D031</t>
-  </si>
-  <si>
-    <t>Fish3D050</t>
-  </si>
-  <si>
-    <t>Fish3D051</t>
-  </si>
-  <si>
-    <t>Fish3D052</t>
-  </si>
-  <si>
-    <t>Fish3D076</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D053</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D028</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D054</t>
-  </si>
-  <si>
-    <t>Fish3D083</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D056</t>
-  </si>
-  <si>
-    <t>Fish3D082</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D057</t>
-  </si>
-  <si>
-    <t>Fish3D058</t>
-  </si>
-  <si>
-    <t>Fish3D077</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D059</t>
-  </si>
-  <si>
-    <t>2倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>7倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>40倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>game_id|场次ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>2,3,4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>3,4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>4,5,6,7,8</t>
-  </si>
-  <si>
-    <t>5,6,7,8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6,7,8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6,7,8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,6,7,8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6,7,8</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1082,7 +1084,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1093,6 +1095,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1127,7 +1135,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,6 +1194,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1467,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
@@ -1541,13 +1552,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="5">
@@ -1557,13 +1568,13 @@
         <v>41</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>88</v>
+        <v>115</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>250</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="N2" s="2"/>
     </row>
@@ -1579,13 +1590,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="5">
@@ -1598,7 +1609,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>25</v>
@@ -1623,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="5">
@@ -1636,10 +1647,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -1655,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="5">
@@ -1671,10 +1682,10 @@
         <v>41</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>26</v>
@@ -1693,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="5">
@@ -1712,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>23</v>
@@ -1731,13 +1742,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="5">
@@ -1749,11 +1760,11 @@
       <c r="J7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>93</v>
+      <c r="K7" s="22" t="s">
+        <v>253</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="N7" s="2"/>
     </row>
@@ -1769,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="5">
@@ -1785,10 +1796,10 @@
         <v>41</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>18</v>
@@ -1807,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5">
@@ -1823,13 +1834,13 @@
         <v>41</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>95</v>
+        <v>118</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="2"/>
@@ -1846,13 +1857,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="5">
@@ -1862,13 +1873,13 @@
         <v>43</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -1884,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5">
@@ -1900,10 +1911,10 @@
         <v>43</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>97</v>
+        <v>120</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>254</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>19</v>
@@ -1922,13 +1933,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="5">
@@ -1938,13 +1949,13 @@
         <v>43</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="2"/>
@@ -1961,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="5">
@@ -1979,11 +1990,11 @@
       <c r="J13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>99</v>
+      <c r="K13" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="2"/>
@@ -2000,13 +2011,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="5">
@@ -2016,10 +2027,10 @@
         <v>41</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>252</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>27</v>
@@ -2044,7 +2055,7 @@
         <v>78</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="5">
@@ -2054,13 +2065,13 @@
         <v>41</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
     </row>
@@ -2082,7 +2093,7 @@
         <v>53</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="5">
@@ -2092,10 +2103,10 @@
         <v>41</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>102</v>
+        <v>124</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="L16" s="17" t="s">
         <v>18</v>
@@ -2120,7 +2131,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="5">
@@ -2133,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>26</v>
@@ -2158,7 +2169,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="5">
@@ -2168,10 +2179,10 @@
         <v>43</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>21</v>
@@ -2195,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="5">
@@ -2205,10 +2216,10 @@
         <v>41</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>245</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>24</v>
@@ -2226,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="5">
@@ -2242,10 +2253,10 @@
         <v>41</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>20</v>
@@ -2263,13 +2274,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="5">
@@ -2279,10 +2290,10 @@
         <v>41</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="L21" s="17" t="s">
         <v>18</v>
@@ -2308,13 +2319,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="5">
@@ -2324,10 +2335,10 @@
         <v>41</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="L22" s="18" t="s">
         <v>22</v>
@@ -2352,13 +2363,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2368,13 +2379,13 @@
         <v>41</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2396,13 +2407,13 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="5">
@@ -2412,13 +2423,13 @@
         <v>41</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2440,13 +2451,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2456,13 +2467,13 @@
         <v>41</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2484,13 +2495,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2500,10 +2511,10 @@
         <v>41</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>29</v>
@@ -2528,13 +2539,13 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="5">
@@ -2544,10 +2555,10 @@
         <v>43</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>113</v>
+        <v>220</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>248</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>28</v>
@@ -2573,13 +2584,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2589,13 +2600,13 @@
         <v>41</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>114</v>
+        <v>221</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -2617,13 +2628,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="5">
@@ -2633,10 +2644,10 @@
         <v>41</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>30</v>
@@ -2654,13 +2665,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="5">
@@ -2670,13 +2681,13 @@
         <v>43</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2698,13 +2709,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2714,10 +2725,10 @@
         <v>43</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>31</v>
@@ -2742,13 +2753,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2758,13 +2769,13 @@
         <v>43</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2778,13 +2789,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2794,13 +2805,13 @@
         <v>41</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2814,13 +2825,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>83</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -2830,7 +2841,7 @@
         <v>41</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>13</v>
@@ -2850,13 +2861,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -2866,13 +2877,13 @@
         <v>41</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2886,13 +2897,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -2902,13 +2913,13 @@
         <v>43</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2922,13 +2933,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -2938,13 +2949,13 @@
         <v>43</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2958,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>65</v>
@@ -2972,13 +2983,13 @@
         <v>43</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2992,13 +3003,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="5">
@@ -3008,13 +3019,13 @@
         <v>43</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3028,13 +3039,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3044,13 +3055,13 @@
         <v>43</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -3064,13 +3075,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>87</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="5">
@@ -3080,10 +3091,10 @@
         <v>43</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>17</v>
@@ -3100,13 +3111,13 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="5">
@@ -3116,13 +3127,13 @@
         <v>43</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -3136,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>67</v>
@@ -3150,13 +3161,13 @@
         <v>43</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -3170,13 +3181,13 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="5">
@@ -3186,13 +3197,13 @@
         <v>43</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M44" s="18"/>
     </row>
@@ -3207,7 +3218,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>69</v>
@@ -3221,13 +3232,13 @@
         <v>43</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -3241,7 +3252,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>70</v>
@@ -3255,13 +3266,13 @@
         <v>41</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3275,13 +3286,13 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>71</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="5">
@@ -3291,13 +3302,13 @@
         <v>43</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="M47" s="8"/>
     </row>
@@ -3312,13 +3323,13 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>73</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="5">
@@ -3328,10 +3339,10 @@
         <v>43</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>15</v>
@@ -3348,13 +3359,13 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="5">
@@ -3364,13 +3375,13 @@
         <v>43</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3384,13 +3395,13 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="5">
@@ -3400,13 +3411,13 @@
         <v>43</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3420,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>39</v>
@@ -3435,7 +3446,7 @@
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="10" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>40</v>
